--- a/ja/application_framework/application_framework/web/getting_started/images/project_delete/images.xlsx
+++ b/ja/application_framework/application_framework/web/getting_started/images/project_delete/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikk91214\work\v6\project\nablarch-document\ja\application_framework\application_framework\web\getting_started\images\project_delete\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7A884F-2D8D-4C71-A4E9-160B0D2F67D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="555" windowWidth="9015" windowHeight="8700"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト削除" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,6 +115,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -117,53 +126,59 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>21872</xdr:rowOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>106493</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152948</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvPr id="13" name="グループ化 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FBC259-8CE5-48F2-AB89-E5CC924FAC1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="171450" y="428625"/>
-          <a:ext cx="10058400" cy="2250722"/>
-          <a:chOff x="171450" y="428625"/>
-          <a:chExt cx="10058400" cy="2250722"/>
+          <a:off x="200025" y="3019425"/>
+          <a:ext cx="12308018" cy="3924848"/>
+          <a:chOff x="10601325" y="3019425"/>
+          <a:chExt cx="12308018" cy="3924848"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="図 2"/>
+          <xdr:cNvPr id="14" name="図 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76272E41-1FB5-E54E-317A-BBD6F1B16F53}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="171450" y="428625"/>
-            <a:ext cx="10058400" cy="2250722"/>
+            <a:off x="10601325" y="3019425"/>
+            <a:ext cx="12308018" cy="3924848"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -172,109 +187,18 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvPr id="15" name="正方形/長方形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4B96EA-8EFF-F192-1239-963CEC4244C0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9429750" y="1114425"/>
-            <a:ext cx="742950" cy="561974"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="31750"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>123035</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="190500" y="3067050"/>
-          <a:ext cx="10058400" cy="4190210"/>
-          <a:chOff x="190500" y="3067050"/>
-          <a:chExt cx="10058400" cy="4190210"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="図 4"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="190500" y="3067050"/>
-            <a:ext cx="10058400" cy="4190210"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="正方形/長方形 22"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="276225" y="5972174"/>
+            <a:off x="10629900" y="5705475"/>
             <a:ext cx="381000" cy="390525"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -312,52 +236,58 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>42337</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>39473</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105137</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="グループ化 8"/>
+        <xdr:cNvPr id="22" name="グループ化 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0866A4-E165-48F0-9C54-69D585550BBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="7753350"/>
-          <a:ext cx="10058400" cy="3195112"/>
-          <a:chOff x="228600" y="7753350"/>
-          <a:chExt cx="10058400" cy="3195112"/>
+          <a:off x="200025" y="171450"/>
+          <a:ext cx="9840698" cy="2591162"/>
+          <a:chOff x="1952625" y="2162175"/>
+          <a:chExt cx="9840698" cy="2591162"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="図 5"/>
+          <xdr:cNvPr id="24" name="図 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6663EB6-39F9-FDD2-4F2E-2D041F674141}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="228600" y="7753350"/>
-            <a:ext cx="10058400" cy="3195112"/>
+            <a:off x="1952625" y="2162175"/>
+            <a:ext cx="9840698" cy="2591162"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -366,13 +296,128 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+          <xdr:cNvPr id="26" name="正方形/長方形 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDFC5CCB-BCA6-8A73-D741-3E4F7C1B14DB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8724900" y="8362950"/>
-            <a:ext cx="790575" cy="666749"/>
+            <a:off x="10963275" y="2247900"/>
+            <a:ext cx="809624" cy="428625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>49000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76498</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="グループ化 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{007F3EC7-AC36-4F9A-B46D-983287538FE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="200025" y="7648575"/>
+          <a:ext cx="9850225" cy="2133898"/>
+          <a:chOff x="4152900" y="9848850"/>
+          <a:chExt cx="9850225" cy="2133898"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="31" name="図 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10DDC792-119C-43AF-66E3-CA67B457E357}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4152900" y="9848850"/>
+            <a:ext cx="9850225" cy="2133898"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="正方形/長方形 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6BA121-7062-1346-13DC-1861C16AD49C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12372975" y="9934575"/>
+            <a:ext cx="838200" cy="438149"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -410,9 +455,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -450,7 +495,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -522,7 +567,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -695,12 +740,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B14:U19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="BR48" sqref="BR48"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -845,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
@@ -861,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
